--- a/Projetos /noticias.xlsx
+++ b/Projetos /noticias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,124 +453,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Veja checagem do discurso de Lula a líderes mundiais em NY</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Presidente cobrou ações de ricos e criticou Conselho de Segurança</t>
-        </is>
-      </c>
+          <t>Lula e Zelensky se encontram agora pela 1ª vez</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/fato-ou-fake/noticia/2023/09/19/veja-a-checagem-do-discurso-de-lula-na-onu.ghtml</t>
+          <t>https://g1.globo.com/politica/noticia/2023/09/20/com-historico-de-discordancias-sobre-guerra-lula-e-zelensky-se-encontram-pela-primeira-vez.ghtml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SANDRA COHEN: Lula preenche vazio deixado por Bolsonaro</t>
+          <t>ASSISTA: STF tem placar de 5 a 2 contra marco temporal de terras indígenas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIRIAM LEITÃO: 'Discurso forte e sem ruídos'</t>
+          <t>Indígenas são contra o marco temporal; entenda o que está em jogo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/mundo/blog/sandra-cohen/post/2023/09/19/com-discurso-aplaudido-lula-preenche-o-vazio-deixado-pelo-antecessor-bolsonaro-na-tribuna-da-onu.ghtml</t>
+          <t>https://g1.globo.com/politica/ao-vivo/stf-julga-marco-temporal-para-demarcacao-de-terras-indigenas.ghtml</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Na ONU, Zelensky acusa Rússia de genocídio e pede punição</t>
+          <t>STF deve derrubar marco temporal e discutir o que ficará no lugar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GUGA CHACRA: 'Houve muita sintonia entre os discursos de Biden e Lula'</t>
+          <t>'Chega de morte dentro do nosso território', diz indígena no STF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/mundo/noticia/2023/09/19/volodymyr-zelensky-da-ucrania-discursa-na-assembleia-da-onu.ghtml</t>
+          <t>https://g1.globo.com/politica/blog/daniela-lima/post/2023/09/20/marco-temporal-supremo.ghtml</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Veja os discursos na ONU e análises sobre a participação de Lula</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Justiça suspende recuperação judicial da 123 Milhas</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clientes lesados poderão incluir nome em lista de valores a receber</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/politica/playlist/lula-discursa-na-onu-veja-trechos-e-analises.ghtml</t>
+          <t>https://g1.globo.com/mg/minas-gerais/noticia/2023/09/20/justica-suspende-recuperacao-judicial-da-123-milhas.ghtml</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Veja como participar do canal do g1 no WhatsApp</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Golpe do 'octilhão': pastor investigado por fraude está foragido</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Polícia diz que grupo enganou 50 mil pessoas e movimentou R$ 156 milhões</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/tecnologia/noticia/2023/09/13/g1-canais-whatsapp.ghtml</t>
+          <t>https://g1.globo.com/df/distrito-federal/noticia/2023/09/20/alvo-operacao-octilhao-policia-df.ghtml</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nova versão da PEC da Anistia cria cota de 20% para eleger mulheres</t>
+          <t>'Nesara Gesara': de onde vem a teoria da conspiração usada por golpistas</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CNJ adia julgamento sobre elevar presença de juízas em tribunais</t>
+          <t>Pastor ostentava vida de luxo e ia para cultos de helicóptero</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/politica/noticia/2023/09/19/pec-da-anistia-relator-propoe-20percent-de-vagas-para-mulheres-em-2026-deputadas-falam-em-tentativa-de-suavizar-texto.ghtml</t>
+          <t>https://g1.globo.com/df/distrito-federal/noticia/2023/09/20/o-que-e-nesara-gesara-teoria-usada-por-pastores-do-df-que-deram-golpes-financeiros-em-fieis.ghtml</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chacina no Recife: cronologia explica sequência de mortes em 24 h</t>
+          <t>É rapidinho: vídeo explica como entrar no canal do g1 no WhatsApp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/pe/pernambuco/noticia/2023/09/19/entenda-sequencia-de-assassinatos-que-deixou-dois-policiais-um-suspeito-e-cinco-parentes-dele-mortos-em-menos-de-24-horas.ghtml</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Polícia investiga alunos de medicina por ato obsceno em SP</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ministro da Educação diz que Lula ligou preocupado com o caso</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://g1.globo.com/sp/sao-carlos-regiao/noticia/2023/09/19/alunos-de-medicina-que-simularam-masturbacao-em-jogo-feminino-sao-investigados-por-ato-obsceno-diz-delegado-da-dig-de-sao-carlos.ghtml</t>
+          <t>https://g1.globo.com/tecnologia/noticia/2023/09/13/g1-canais-whatsapp.ghtml</t>
         </is>
       </c>
     </row>

--- a/Projetos /noticias.xlsx
+++ b/Projetos /noticias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,128 +436,324 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Título</t>
+          <t>Papel</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SubTítulo</t>
+          <t>Preço</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Dividend Yield</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Margem líquida</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lula e Zelensky se encontram agora pela 1ª vez</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>AGRO3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>R$ 28,00</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/politica/noticia/2023/09/20/com-historico-de-discordancias-sobre-guerra-lula-e-zelensky-se-encontram-pela-primeira-vez.ghtml</t>
+          <t>11,57</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1,30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20,98</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASSISTA: STF tem placar de 5 a 2 contra marco temporal de terras indígenas</t>
+          <t>AURE3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indígenas são contra o marco temporal; entenda o que está em jogo</t>
+          <t>R$ 13,82</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/politica/ao-vivo/stf-julga-marco-temporal-para-demarcacao-de-terras-indigenas.ghtml</t>
+          <t>10,85</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52,70</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STF deve derrubar marco temporal e discutir o que ficará no lugar</t>
+          <t>BBAS3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>'Chega de morte dentro do nosso território', diz indígena no STF</t>
+          <t>R$ 46,57</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/politica/blog/daniela-lima/post/2023/09/20/marco-temporal-supremo.ghtml</t>
+          <t>9,87</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12,35</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Justiça suspende recuperação judicial da 123 Milhas</t>
+          <t>CEBR3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clientes lesados poderão incluir nome em lista de valores a receber</t>
+          <t>R$ 13,65</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/mg/minas-gerais/noticia/2023/09/20/justica-suspende-recuperacao-judicial-da-123-milhas.ghtml</t>
+          <t>10,93</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Golpe do 'octilhão': pastor investigado por fraude está foragido</t>
+          <t>CEBR5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Polícia diz que grupo enganou 50 mil pessoas e movimentou R$ 156 milhões</t>
+          <t>R$ 13,55</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/df/distrito-federal/noticia/2023/09/20/alvo-operacao-octilhao-policia-df.ghtml</t>
+          <t>11,01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66,35</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>'Nesara Gesara': de onde vem a teoria da conspiração usada por golpistas</t>
+          <t>CEBR6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pastor ostentava vida de luxo e ia para cultos de helicóptero</t>
+          <t>R$ 14,87</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/df/distrito-federal/noticia/2023/09/20/o-que-e-nesara-gesara-teoria-usada-por-pastores-do-df-que-deram-golpes-financeiros-em-fieis.ghtml</t>
+          <t>11,03</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>É rapidinho: vídeo explica como entrar no canal do g1 no WhatsApp</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>CMIG4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>R$ 12,97</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://g1.globo.com/tecnologia/noticia/2023/09/13/g1-canais-whatsapp.ghtml</t>
+          <t>8,71</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GEPA3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>R$ 24,59</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>13,06</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GEPA4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>R$ 25,01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12,84</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GGBR4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>R$ 24,42</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13,47</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ROMI3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>R$ 12,31</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8,14</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14,09</t>
         </is>
       </c>
     </row>
